--- a/Data Structures/hash_table/hash_lock_per_bucket.xlsx
+++ b/Data Structures/hash_table/hash_lock_per_bucket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1095,11 +1095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75563776"/>
-        <c:axId val="75565696"/>
+        <c:axId val="167081472"/>
+        <c:axId val="167135104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75563776"/>
+        <c:axId val="167081472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75565696"/>
+        <c:crossAx val="167135104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75565696"/>
+        <c:axId val="167135104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75563776"/>
+        <c:crossAx val="167081472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1324,11 +1324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76647040"/>
-        <c:axId val="76653312"/>
+        <c:axId val="140813824"/>
+        <c:axId val="140815744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76647040"/>
+        <c:axId val="140813824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76653312"/>
+        <c:crossAx val="140815744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76653312"/>
+        <c:axId val="140815744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76647040"/>
+        <c:crossAx val="140813824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,11 +1550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76679808"/>
-        <c:axId val="76681984"/>
+        <c:axId val="142501376"/>
+        <c:axId val="142503296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76679808"/>
+        <c:axId val="142501376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76681984"/>
+        <c:crossAx val="142503296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,7 +1590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76681984"/>
+        <c:axId val="142503296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76679808"/>
+        <c:crossAx val="142501376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,11 +1922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76733824"/>
-        <c:axId val="76289536"/>
+        <c:axId val="142551296"/>
+        <c:axId val="142561664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76733824"/>
+        <c:axId val="142551296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76289536"/>
+        <c:crossAx val="142561664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76289536"/>
+        <c:axId val="142561664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76733824"/>
+        <c:crossAx val="142551296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76339072"/>
-        <c:axId val="76353536"/>
+        <c:axId val="142676736"/>
+        <c:axId val="142678656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76339072"/>
+        <c:axId val="142676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76353536"/>
+        <c:crossAx val="142678656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76353536"/>
+        <c:axId val="142678656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76339072"/>
+        <c:crossAx val="142676736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,11 +2491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76373376"/>
-        <c:axId val="76375552"/>
+        <c:axId val="142694656"/>
+        <c:axId val="142705024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76373376"/>
+        <c:axId val="142694656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76375552"/>
+        <c:crossAx val="142705024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76375552"/>
+        <c:axId val="142705024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76373376"/>
+        <c:crossAx val="142694656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2788,11 +2788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76494720"/>
-        <c:axId val="76500992"/>
+        <c:axId val="142758656"/>
+        <c:axId val="142760576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76494720"/>
+        <c:axId val="142758656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76500992"/>
+        <c:crossAx val="142760576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2829,7 +2829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76500992"/>
+        <c:axId val="142760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76494720"/>
+        <c:crossAx val="142758656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3104,11 +3104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76523392"/>
-        <c:axId val="76537856"/>
+        <c:axId val="142791424"/>
+        <c:axId val="142793344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76523392"/>
+        <c:axId val="142791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76537856"/>
+        <c:crossAx val="142793344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3145,7 +3145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76537856"/>
+        <c:axId val="142793344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76523392"/>
+        <c:crossAx val="142791424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3420,11 +3420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77096832"/>
-        <c:axId val="77099008"/>
+        <c:axId val="154424064"/>
+        <c:axId val="154425984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77096832"/>
+        <c:axId val="154424064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,7 +3453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77099008"/>
+        <c:crossAx val="154425984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3461,7 +3461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77099008"/>
+        <c:axId val="154425984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77096832"/>
+        <c:crossAx val="154424064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3736,11 +3736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77133696"/>
-        <c:axId val="77148160"/>
+        <c:axId val="154456832"/>
+        <c:axId val="154458752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77133696"/>
+        <c:axId val="154456832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,7 +3769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77148160"/>
+        <c:crossAx val="154458752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3777,7 +3777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77148160"/>
+        <c:axId val="154458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77133696"/>
+        <c:crossAx val="154456832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,11 +4400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76876416"/>
-        <c:axId val="76890880"/>
+        <c:axId val="154519040"/>
+        <c:axId val="154520960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76876416"/>
+        <c:axId val="154519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,7 +4433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76890880"/>
+        <c:crossAx val="154520960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4441,7 +4441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76890880"/>
+        <c:axId val="154520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76876416"/>
+        <c:crossAx val="154519040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,6 +4523,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5237,11 +5238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76099584"/>
-        <c:axId val="76101504"/>
+        <c:axId val="142022912"/>
+        <c:axId val="142037376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76099584"/>
+        <c:axId val="142022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,13 +5264,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76101504"/>
+        <c:crossAx val="142037376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5277,7 +5279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76101504"/>
+        <c:axId val="142037376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,19 +5302,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76099584"/>
+        <c:crossAx val="142022912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6021,11 +6025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76949376"/>
-        <c:axId val="76955648"/>
+        <c:axId val="154579712"/>
+        <c:axId val="154581632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76949376"/>
+        <c:axId val="154579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6054,7 +6058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76955648"/>
+        <c:crossAx val="154581632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6062,7 +6066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76955648"/>
+        <c:axId val="154581632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +6096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76949376"/>
+        <c:crossAx val="154579712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6819,11 +6823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77029760"/>
-        <c:axId val="77031680"/>
+        <c:axId val="154692608"/>
+        <c:axId val="154715264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77029760"/>
+        <c:axId val="154692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,7 +6856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77031680"/>
+        <c:crossAx val="154715264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6860,7 +6864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77031680"/>
+        <c:axId val="154715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6890,7 +6894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77029760"/>
+        <c:crossAx val="154692608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7606,11 +7610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77560448"/>
-        <c:axId val="77570816"/>
+        <c:axId val="154777088"/>
+        <c:axId val="154779008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77560448"/>
+        <c:axId val="154777088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7638,7 +7642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77570816"/>
+        <c:crossAx val="154779008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7646,7 +7650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77570816"/>
+        <c:axId val="154779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,7 +7679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77560448"/>
+        <c:crossAx val="154777088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7933,11 +7937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77736576"/>
-        <c:axId val="77746944"/>
+        <c:axId val="154875392"/>
+        <c:axId val="154877312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77736576"/>
+        <c:axId val="154875392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7965,7 +7969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77746944"/>
+        <c:crossAx val="154877312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7973,7 +7977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77746944"/>
+        <c:axId val="154877312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8002,7 +8006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77736576"/>
+        <c:crossAx val="154875392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8250,11 +8254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77760768"/>
-        <c:axId val="77762944"/>
+        <c:axId val="154907776"/>
+        <c:axId val="154909696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77760768"/>
+        <c:axId val="154907776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8282,7 +8286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77762944"/>
+        <c:crossAx val="154909696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8290,7 +8294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77762944"/>
+        <c:axId val="154909696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8319,7 +8323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77760768"/>
+        <c:crossAx val="154907776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8567,11 +8571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77805824"/>
-        <c:axId val="77812096"/>
+        <c:axId val="154932352"/>
+        <c:axId val="154934272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77805824"/>
+        <c:axId val="154932352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8599,7 +8603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77812096"/>
+        <c:crossAx val="154934272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8607,7 +8611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77812096"/>
+        <c:axId val="154934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,7 +8640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77805824"/>
+        <c:crossAx val="154932352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8692,6 +8696,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8884,11 +8889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77842688"/>
-        <c:axId val="77848960"/>
+        <c:axId val="154985600"/>
+        <c:axId val="154987520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77842688"/>
+        <c:axId val="154985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8910,13 +8915,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77848960"/>
+        <c:crossAx val="154987520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8924,7 +8930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77848960"/>
+        <c:axId val="154987520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8947,19 +8953,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77842688"/>
+        <c:crossAx val="154985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9730,11 +9738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76151808"/>
-        <c:axId val="75834496"/>
+        <c:axId val="154396160"/>
+        <c:axId val="154398080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76151808"/>
+        <c:axId val="154396160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9763,7 +9771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75834496"/>
+        <c:crossAx val="154398080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9771,7 +9779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75834496"/>
+        <c:axId val="154398080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9801,7 +9809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76151808"/>
+        <c:crossAx val="154396160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9964,11 +9972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75873280"/>
-        <c:axId val="75879552"/>
+        <c:axId val="140518912"/>
+        <c:axId val="140520832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75873280"/>
+        <c:axId val="140518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,7 +10005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75879552"/>
+        <c:crossAx val="140520832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10005,7 +10013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75879552"/>
+        <c:axId val="140520832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10035,7 +10043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75873280"/>
+        <c:crossAx val="140518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10194,11 +10202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75910144"/>
-        <c:axId val="75916416"/>
+        <c:axId val="140555776"/>
+        <c:axId val="140557696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75910144"/>
+        <c:axId val="140555776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10227,7 +10235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75916416"/>
+        <c:crossAx val="140557696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10235,7 +10243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75916416"/>
+        <c:axId val="140557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10265,7 +10273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75910144"/>
+        <c:crossAx val="140555776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10424,11 +10432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75952896"/>
-        <c:axId val="75954816"/>
+        <c:axId val="140576256"/>
+        <c:axId val="140578176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75952896"/>
+        <c:axId val="140576256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10457,7 +10465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75954816"/>
+        <c:crossAx val="140578176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10465,7 +10473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75954816"/>
+        <c:axId val="140578176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10495,7 +10503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75952896"/>
+        <c:crossAx val="140576256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10654,11 +10662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75967488"/>
-        <c:axId val="75998336"/>
+        <c:axId val="140621312"/>
+        <c:axId val="140623232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75967488"/>
+        <c:axId val="140621312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,7 +10695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75998336"/>
+        <c:crossAx val="140623232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10695,7 +10703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75998336"/>
+        <c:axId val="140623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10725,7 +10733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75967488"/>
+        <c:crossAx val="140621312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10790,7 +10798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10884,11 +10891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76557312"/>
-        <c:axId val="76563584"/>
+        <c:axId val="140789248"/>
+        <c:axId val="140791168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76557312"/>
+        <c:axId val="140789248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10910,14 +10917,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76563584"/>
+        <c:crossAx val="140791168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10925,7 +10931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76563584"/>
+        <c:axId val="140791168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10948,21 +10954,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76557312"/>
+        <c:crossAx val="140789248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11116,11 +11120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76606080"/>
-        <c:axId val="76612352"/>
+        <c:axId val="124818944"/>
+        <c:axId val="124820864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76606080"/>
+        <c:axId val="124818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11148,7 +11152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76612352"/>
+        <c:crossAx val="124820864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11156,7 +11160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76612352"/>
+        <c:axId val="124820864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11185,7 +11189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76606080"/>
+        <c:crossAx val="124818944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12326,8 +12330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Structures/hash_table/hash_lock_per_bucket.xlsx
+++ b/Data Structures/hash_table/hash_lock_per_bucket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="77">
   <si>
     <t>cycles</t>
   </si>
@@ -136,36 +136,6 @@
   </si>
   <si>
     <t>Cube TICKET_RELAX</t>
-  </si>
-  <si>
-    <t>Local 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoker 131072 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local 131072 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube 131072 </t>
-  </si>
-  <si>
-    <t>Stoker 134217728</t>
-  </si>
-  <si>
-    <t>Local 134217728</t>
-  </si>
-  <si>
-    <t>Cube 134217728</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locked per bucket hash table initial table size 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locked per bucket hash table initial table size 131072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Locked per bucket hash table initial table size 134217728 (2^27)</t>
   </si>
   <si>
     <t xml:space="preserve"> Locked per bucket hash table initial table size 128 NO RESIZE</t>
@@ -694,6 +664,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6162726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6014086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -752,6 +746,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5968042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5954735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5282587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3182700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2955640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2246942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2069124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -810,6 +828,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3641562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3570857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3391114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88722</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -868,6 +910,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4514791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3027579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3194056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -926,6 +992,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5595751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8315237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5599226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2307169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -984,6 +1074,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3840929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3863248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>638674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>559834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1042,6 +1156,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5270424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5218742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5089990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4544963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>622871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>582804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1100,6 +1238,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5271460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4841870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4246007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1158,6 +1320,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4609420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4600459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1173,11 +1359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81593088"/>
-        <c:axId val="81595008"/>
+        <c:axId val="59515264"/>
+        <c:axId val="91096192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81593088"/>
+        <c:axId val="59515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81595008"/>
+        <c:crossAx val="91096192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81595008"/>
+        <c:axId val="91096192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81593088"/>
+        <c:crossAx val="59515264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,6 +1523,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4514791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3027579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3194056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1358,9 +1568,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -1387,6 +1597,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5803989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5547221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5711971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2424589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2453659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>855567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1402,11 +1636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95713920"/>
-        <c:axId val="95720192"/>
+        <c:axId val="117197056"/>
+        <c:axId val="117498240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95713920"/>
+        <c:axId val="117197056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95720192"/>
+        <c:crossAx val="117498240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1442,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95720192"/>
+        <c:axId val="117498240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95713920"/>
+        <c:crossAx val="117197056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,6 +1797,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5595751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8315237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5599226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2307169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1584,9 +1842,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -1613,6 +1871,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5910556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9057948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5853988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5386819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6011715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3793085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2632658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1850085</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1628,11 +1910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95754880"/>
-        <c:axId val="95757056"/>
+        <c:axId val="121002240"/>
+        <c:axId val="121020800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95754880"/>
+        <c:axId val="121002240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95757056"/>
+        <c:crossAx val="121020800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +1950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95757056"/>
+        <c:axId val="121020800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95754880"/>
+        <c:crossAx val="121002240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1883,6 +2165,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5270424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5218742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5089990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4544963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>622871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>582804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1904,10 +2210,13 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1929,10 +2238,13 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1958,6 +2270,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9768659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7137218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4743001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4669603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5195464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>589159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1983,6 +2319,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5525693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5545014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7159367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5537071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3262379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3024722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>594478</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2008,6 +2368,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5733843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5663894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1344741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4124843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2033,6 +2417,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5613775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7319535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8477921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5178237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1861225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2048,11 +2456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97787264"/>
-        <c:axId val="97789440"/>
+        <c:axId val="121416704"/>
+        <c:axId val="121619584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97787264"/>
+        <c:axId val="121416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97789440"/>
+        <c:crossAx val="121619584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97789440"/>
+        <c:axId val="121619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97787264"/>
+        <c:crossAx val="121416704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2205,6 +2613,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5968042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5954735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5282587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3182700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2955640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2246942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2069124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2230,6 +2662,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3641562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3570857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3391114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88722</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2255,6 +2711,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4514791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3027579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3194056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2280,6 +2760,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5595751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8315237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5599226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2307169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2305,6 +2809,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3840929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3863248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>638674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>559834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2330,6 +2858,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4609420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4600459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2345,11 +2897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97830784"/>
-        <c:axId val="97837056"/>
+        <c:axId val="123926016"/>
+        <c:axId val="123927936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97830784"/>
+        <c:axId val="123926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97837056"/>
+        <c:crossAx val="123927936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2386,7 +2938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97837056"/>
+        <c:axId val="123927936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97830784"/>
+        <c:crossAx val="123926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2497,9 +3049,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -2522,9 +3074,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -2547,9 +3099,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -2576,6 +3128,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10645278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7998901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7068836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7034237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7124322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2583157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3560678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>522261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2601,6 +3177,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10886606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8893814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7299574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3296391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382026</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2616,11 +3216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97865088"/>
-        <c:axId val="97875456"/>
+        <c:axId val="124161024"/>
+        <c:axId val="124171392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97865088"/>
+        <c:axId val="124161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +3248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97875456"/>
+        <c:crossAx val="124171392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2656,7 +3256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97875456"/>
+        <c:axId val="124171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +3285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97865088"/>
+        <c:crossAx val="124161024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2769,6 +3369,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6041262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6085560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6116850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6277617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2794,6 +3418,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5769282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6117687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2561482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2819,6 +3467,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5803989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5547221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5711971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2424589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2453659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>855567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2844,6 +3516,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5910556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9057948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5853988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5386819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6011715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3793085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2632658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1850085</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2869,6 +3565,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5889492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5846271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6083834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8424789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6288327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35585</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2894,6 +3614,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6183697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6095797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8473401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8908438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5535965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2909,11 +3653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97986432"/>
-        <c:axId val="97992704"/>
+        <c:axId val="124245504"/>
+        <c:axId val="124247424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97986432"/>
+        <c:axId val="124245504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97992704"/>
+        <c:crossAx val="124247424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2949,7 +3693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97992704"/>
+        <c:axId val="124247424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +3722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97986432"/>
+        <c:crossAx val="124245504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3046,9 +3790,6 @@
               <c:f>Sheet1!$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3058,30 +3799,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3104,9 +3821,6 @@
               <c:f>Sheet1!$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3116,30 +3830,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3162,9 +3852,6 @@
               <c:f>Sheet1!$A$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3174,30 +3861,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3222,11 +3885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98031488"/>
-        <c:axId val="98037760"/>
+        <c:axId val="125044224"/>
+        <c:axId val="125046144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98031488"/>
+        <c:axId val="125044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98037760"/>
+        <c:crossAx val="125046144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3263,7 +3926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98037760"/>
+        <c:axId val="125046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,7 +3956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98031488"/>
+        <c:crossAx val="125044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3362,9 +4025,6 @@
               <c:f>Sheet1!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3374,30 +4034,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3420,9 +4056,6 @@
               <c:f>Sheet1!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3432,30 +4065,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3478,9 +4087,6 @@
               <c:f>Sheet1!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3490,30 +4096,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3538,11 +4120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99968896"/>
-        <c:axId val="99979264"/>
+        <c:axId val="131237376"/>
+        <c:axId val="131239296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99968896"/>
+        <c:axId val="131237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +4153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99979264"/>
+        <c:crossAx val="131239296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3579,7 +4161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99979264"/>
+        <c:axId val="131239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +4191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99968896"/>
+        <c:crossAx val="131237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3678,9 +4260,6 @@
               <c:f>Sheet1!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3690,30 +4269,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3736,9 +4291,6 @@
               <c:f>Sheet1!$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3748,30 +4300,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3794,9 +4322,6 @@
               <c:f>Sheet1!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3806,30 +4331,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3854,11 +4355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100013952"/>
-        <c:axId val="100020224"/>
+        <c:axId val="133522944"/>
+        <c:axId val="133524864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100013952"/>
+        <c:axId val="133522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +4388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100020224"/>
+        <c:crossAx val="133524864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3895,7 +4396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100020224"/>
+        <c:axId val="133524864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +4426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100013952"/>
+        <c:crossAx val="133522944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3994,9 +4495,6 @@
               <c:f>Sheet1!$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4006,30 +4504,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4052,9 +4526,6 @@
               <c:f>Sheet1!$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4064,30 +4535,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4110,9 +4557,6 @@
               <c:f>Sheet1!$A$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4122,30 +4566,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4168,9 +4588,6 @@
               <c:f>Sheet1!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4180,30 +4597,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4226,9 +4619,6 @@
               <c:f>Sheet1!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4238,30 +4628,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4284,9 +4650,6 @@
               <c:f>Sheet1!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4296,30 +4659,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4342,9 +4681,6 @@
               <c:f>Sheet1!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4354,30 +4690,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4400,9 +4712,6 @@
               <c:f>Sheet1!$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4412,30 +4721,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4458,9 +4743,6 @@
               <c:f>Sheet1!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4470,30 +4752,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4518,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101649024"/>
-        <c:axId val="101655296"/>
+        <c:axId val="134723840"/>
+        <c:axId val="135016832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101649024"/>
+        <c:axId val="134723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101655296"/>
+        <c:crossAx val="135016832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4559,7 +4817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101655296"/>
+        <c:axId val="135016832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101649024"/>
+        <c:crossAx val="134723840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4702,6 +4960,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6573446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6674608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6363900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169410</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4760,6 +5042,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5525693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5545014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7159367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5537071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3262379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3024722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>594478</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4818,6 +5124,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5733843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5663894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1344741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4124843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4876,6 +5206,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7230003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3612</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4934,6 +5288,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6041262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6085560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6116850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6277617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4992,6 +5370,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5769282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6117687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2561482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5050,6 +5452,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5803989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5547221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5711971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2424589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2453659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>855567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5108,6 +5534,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5910556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9057948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5853988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5386819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6011715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3793085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2632658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1850085</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5166,6 +5616,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5889492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5846271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6083834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8424789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6288327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35585</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5224,6 +5698,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5613775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7319535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8477921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5178237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1861225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5282,6 +5780,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7181724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7435663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9249189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7703</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5340,6 +5862,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6183697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6095797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8473401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8908438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5535965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5355,11 +5901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96092160"/>
-        <c:axId val="96094080"/>
+        <c:axId val="106139008"/>
+        <c:axId val="106283008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96092160"/>
+        <c:axId val="106139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96094080"/>
+        <c:crossAx val="106283008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5395,7 +5941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96094080"/>
+        <c:axId val="106283008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96092160"/>
+        <c:crossAx val="106139008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5790,6 +6336,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6162726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6014086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5848,6 +6418,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5968042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5954735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5282587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3182700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2955640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2246942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2069124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5906,6 +6500,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3641562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3570857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3391114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88722</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5964,6 +6582,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4514791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3027579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3194056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6022,6 +6664,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5595751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8315237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5599226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2307169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6035,9 +6701,6 @@
               <c:f>Sheet1!$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6093,9 +6756,6 @@
               <c:f>Sheet1!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6151,9 +6811,6 @@
               <c:f>Sheet1!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6211,11 +6868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101726080"/>
-        <c:axId val="101740544"/>
+        <c:axId val="93140480"/>
+        <c:axId val="93142400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101726080"/>
+        <c:axId val="93140480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101740544"/>
+        <c:crossAx val="93142400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6251,7 +6908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101740544"/>
+        <c:axId val="93142400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6280,7 +6937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101726080"/>
+        <c:crossAx val="93140480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,9 +7061,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6462,9 +7119,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6520,9 +7177,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6578,9 +7235,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6636,9 +7293,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6755,9 +7412,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6813,9 +7470,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -6830,9 +7487,6 @@
               <c:f>Sheet1!$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6888,9 +7542,6 @@
               <c:f>Sheet1!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -6946,9 +7597,6 @@
               <c:f>Sheet1!$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7006,11 +7654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101814656"/>
-        <c:axId val="101816576"/>
+        <c:axId val="106029056"/>
+        <c:axId val="106030976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101814656"/>
+        <c:axId val="106029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7038,7 +7686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101816576"/>
+        <c:crossAx val="106030976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7046,7 +7694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101816576"/>
+        <c:axId val="106030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,7 +7723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101814656"/>
+        <c:crossAx val="106029056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7195,6 +7843,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6573446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6674608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6363900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169410</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7253,6 +7925,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5525693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5545014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7159367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5537071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3262379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3024722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>594478</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7311,6 +8007,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5733843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5663894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1344741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4124843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7369,6 +8089,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7230003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3612</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7427,6 +8171,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6041262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6085560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6116850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6277617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7485,6 +8253,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5769282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6117687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2561482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7543,6 +8335,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5803989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5547221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5711971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2424589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2453659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>855567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7601,6 +8417,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5910556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9057948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5853988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5386819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6011715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3793085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2632658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1850085</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7614,9 +8454,6 @@
               <c:f>Sheet1!$A$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7672,9 +8509,6 @@
               <c:f>Sheet1!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7730,9 +8564,6 @@
               <c:f>Sheet1!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7790,11 +8621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102206080"/>
-        <c:axId val="102212352"/>
+        <c:axId val="94025984"/>
+        <c:axId val="94036352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102206080"/>
+        <c:axId val="94025984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,7 +8653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102212352"/>
+        <c:crossAx val="94036352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7830,7 +8661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102212352"/>
+        <c:axId val="94036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7859,7 +8690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102206080"/>
+        <c:crossAx val="94025984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7986,6 +8817,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3840929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3863248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>638674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>559834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8044,6 +8899,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10645278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7998901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7068836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7034237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7124322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2583157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3560678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>522261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8102,6 +8981,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5889492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5846271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6083834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8424789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6288327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35585</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8117,11 +9020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104016512"/>
-        <c:axId val="104022784"/>
+        <c:axId val="94853376"/>
+        <c:axId val="94863744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104016512"/>
+        <c:axId val="94853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8149,7 +9052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104022784"/>
+        <c:crossAx val="94863744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8157,7 +9060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104022784"/>
+        <c:axId val="94863744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8186,7 +9089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104016512"/>
+        <c:crossAx val="94853376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8303,6 +9206,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5270424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5218742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5089990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4544963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>622871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>582804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8361,6 +9288,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9768659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7137218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4743001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4669603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5195464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>589159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8419,6 +9370,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5613775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7319535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8477921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5178237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1861225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8434,11 +9409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104040704"/>
-        <c:axId val="104042880"/>
+        <c:axId val="94893952"/>
+        <c:axId val="95948800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104040704"/>
+        <c:axId val="94893952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,7 +9441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104042880"/>
+        <c:crossAx val="95948800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8474,7 +9449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104042880"/>
+        <c:axId val="95948800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8503,7 +9478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104040704"/>
+        <c:crossAx val="94893952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8620,6 +9595,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5271460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4841870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4246007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8678,6 +9677,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14132767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7772305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7839617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8051534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>690476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3178090</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8736,6 +9759,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7181724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7435663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9249189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7703</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8751,11 +9798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104085760"/>
-        <c:axId val="104092032"/>
+        <c:axId val="95975296"/>
+        <c:axId val="95989760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104085760"/>
+        <c:axId val="95975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8783,7 +9830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104092032"/>
+        <c:crossAx val="95989760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8791,7 +9838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104092032"/>
+        <c:axId val="95989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8820,7 +9867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104085760"/>
+        <c:crossAx val="95975296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8937,6 +9984,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4609420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4600459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8995,6 +10066,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10886606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8893814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7299574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3296391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382026</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9053,6 +10148,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6183697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6095797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8473401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8908438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5535965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9068,11 +10187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104122624"/>
-        <c:axId val="104141184"/>
+        <c:axId val="96020352"/>
+        <c:axId val="96022528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104122624"/>
+        <c:axId val="96020352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,7 +10219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104141184"/>
+        <c:crossAx val="96022528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9108,7 +10227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104141184"/>
+        <c:axId val="96022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9137,7 +10256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104122624"/>
+        <c:crossAx val="96020352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9254,10 +10373,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9312,10 +10434,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9370,10 +10495,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9428,10 +10556,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9486,10 +10617,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9605,10 +10739,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9663,10 +10800,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9725,6 +10865,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10645278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7998901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7068836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7034237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7124322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2583157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3560678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>522261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9783,6 +10947,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9768659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7137218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4743001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4669603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5195464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>589159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9841,6 +11029,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14132767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7772305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7839617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8051534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>690476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3178090</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9899,6 +11111,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10886606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8893814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7299574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3296391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382026</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9914,11 +11150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96140288"/>
-        <c:axId val="96539776"/>
+        <c:axId val="135259648"/>
+        <c:axId val="135404928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96140288"/>
+        <c:axId val="135259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9947,7 +11183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96539776"/>
+        <c:crossAx val="135404928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9955,7 +11191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96539776"/>
+        <c:axId val="135404928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9981,11 +11217,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96140288"/>
+        <c:crossAx val="135259648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10128,10 +11364,13 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10157,6 +11396,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6573446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6674608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6363900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169410</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10172,11 +11435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96582656"/>
-        <c:axId val="96588928"/>
+        <c:axId val="106535168"/>
+        <c:axId val="106561920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96582656"/>
+        <c:axId val="106535168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10205,7 +11468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96588928"/>
+        <c:crossAx val="106561920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10213,7 +11476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96588928"/>
+        <c:axId val="106561920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10243,7 +11506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96582656"/>
+        <c:crossAx val="106535168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10382,10 +11645,13 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10411,6 +11677,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5525693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5545014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7159367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5537071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3262379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3024722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>594478</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10426,11 +11716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96613504"/>
-        <c:axId val="96615424"/>
+        <c:axId val="106608896"/>
+        <c:axId val="106615168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96613504"/>
+        <c:axId val="106608896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10459,7 +11749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96615424"/>
+        <c:crossAx val="106615168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10467,7 +11757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96615424"/>
+        <c:axId val="106615168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10497,7 +11787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96613504"/>
+        <c:crossAx val="106608896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10635,9 +11925,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -10664,6 +11954,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5733843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5663894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1344741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4896612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4124843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10679,11 +11993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97719424"/>
-        <c:axId val="97721344"/>
+        <c:axId val="113338624"/>
+        <c:axId val="113340800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97719424"/>
+        <c:axId val="113338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10711,7 +12025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97721344"/>
+        <c:crossAx val="113340800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10719,7 +12033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97721344"/>
+        <c:axId val="113340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10748,7 +12062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97719424"/>
+        <c:crossAx val="113338624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10840,6 +12154,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6162726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6014086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10861,9 +12199,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -10890,6 +12228,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7230003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3612</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10905,11 +12267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97729920"/>
-        <c:axId val="97748480"/>
+        <c:axId val="113678592"/>
+        <c:axId val="113680768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97729920"/>
+        <c:axId val="113678592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10937,7 +12299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97748480"/>
+        <c:crossAx val="113680768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10945,7 +12307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97748480"/>
+        <c:axId val="113680768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10974,7 +12336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97729920"/>
+        <c:crossAx val="113678592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11066,6 +12428,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5968042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5954735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5282587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3182700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2955640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2784365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2246942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2069124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11087,9 +12473,9 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
@@ -11116,6 +12502,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6041262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6085560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6116850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6277617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11131,11 +12541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95628288"/>
-        <c:axId val="95638656"/>
+        <c:axId val="113993984"/>
+        <c:axId val="114045312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95628288"/>
+        <c:axId val="113993984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11163,7 +12573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95638656"/>
+        <c:crossAx val="114045312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11171,7 +12581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95638656"/>
+        <c:axId val="114045312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11200,7 +12610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95628288"/>
+        <c:crossAx val="113993984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11292,6 +12702,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3641562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3570857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3391114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88722</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11345,6 +12779,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5769282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6117687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2561482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25593</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11360,11 +12818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95677056"/>
-        <c:axId val="95683328"/>
+        <c:axId val="117037312"/>
+        <c:axId val="117125504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95677056"/>
+        <c:axId val="117037312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11392,7 +12850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95683328"/>
+        <c:crossAx val="117125504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11400,7 +12858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95683328"/>
+        <c:axId val="117125504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11429,7 +12887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95677056"/>
+        <c:crossAx val="117037312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12570,8 +14028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12698,7 +14156,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -12737,7 +14195,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6">
         <v>6420395</v>
@@ -12766,7 +14224,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6">
         <v>4131541</v>
@@ -12795,7 +14253,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6">
         <v>3777312</v>
@@ -12824,436 +14282,964 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6162726</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6014086</v>
+      </c>
+      <c r="D14" s="6">
+        <v>271</v>
+      </c>
+      <c r="E14" s="6">
+        <v>258</v>
+      </c>
+      <c r="F14" s="6">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6">
+        <v>206</v>
+      </c>
+      <c r="H14" s="6">
+        <v>227</v>
+      </c>
+      <c r="I14" s="6">
+        <v>395</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5968042</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5954735</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5282587</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3182700</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2955640</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2784365</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2246942</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2069124</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3641562</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3651537</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3570857</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3391114</v>
+      </c>
+      <c r="F16" s="6">
+        <v>511910</v>
+      </c>
+      <c r="G16" s="6">
+        <v>233862</v>
+      </c>
+      <c r="H16" s="6">
+        <v>220927</v>
+      </c>
+      <c r="I16" s="6">
+        <v>88722</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4514791</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3027579</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3194056</v>
+      </c>
+      <c r="E17" s="6">
+        <v>672637</v>
+      </c>
+      <c r="F17" s="6">
+        <v>575922</v>
+      </c>
+      <c r="G17" s="6">
+        <v>388323</v>
+      </c>
+      <c r="H17" s="6">
+        <v>274385</v>
+      </c>
+      <c r="I17" s="6">
+        <v>196157</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5595751</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8315237</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5599226</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2307169</v>
+      </c>
+      <c r="F18" s="6">
+        <v>760</v>
+      </c>
+      <c r="G18" s="6">
+        <v>735</v>
+      </c>
+      <c r="H18" s="6">
+        <v>668</v>
+      </c>
+      <c r="I18" s="6">
+        <v>913</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3840929</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3863248</v>
+      </c>
+      <c r="D19" s="6">
+        <v>290288</v>
+      </c>
+      <c r="E19" s="6">
+        <v>638674</v>
+      </c>
+      <c r="F19" s="6">
+        <v>137574</v>
+      </c>
+      <c r="G19" s="6">
+        <v>559834</v>
+      </c>
+      <c r="H19" s="6">
+        <v>402464</v>
+      </c>
+      <c r="I19" s="6">
+        <v>117105</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5270424</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5218742</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5089990</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4544963</v>
+      </c>
+      <c r="F20" s="6">
+        <v>622871</v>
+      </c>
+      <c r="G20" s="6">
+        <v>597963</v>
+      </c>
+      <c r="H20" s="6">
+        <v>582804</v>
+      </c>
+      <c r="I20" s="6">
+        <v>552136</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5271460</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4841870</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4246007</v>
+      </c>
+      <c r="E21" s="6">
+        <v>359262</v>
+      </c>
+      <c r="F21" s="6">
+        <v>650188</v>
+      </c>
+      <c r="G21" s="6">
+        <v>408003</v>
+      </c>
+      <c r="H21" s="6">
+        <v>390455</v>
+      </c>
+      <c r="I21" s="6">
+        <v>25495</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4609420</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4600459</v>
+      </c>
+      <c r="D22" s="6">
+        <v>680305</v>
+      </c>
+      <c r="E22" s="6">
+        <v>608329</v>
+      </c>
+      <c r="F22" s="6">
+        <v>714515</v>
+      </c>
+      <c r="G22" s="6">
+        <v>632506</v>
+      </c>
+      <c r="H22" s="6">
+        <v>579410</v>
+      </c>
+      <c r="I22" s="6">
+        <v>111330</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5255759</v>
+      </c>
+      <c r="C23" s="6">
+        <v>466450</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2061728</v>
+      </c>
+      <c r="E23" s="6">
+        <v>827233</v>
+      </c>
+      <c r="F23" s="6">
+        <v>12144</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4959</v>
+      </c>
+      <c r="H23" s="6">
+        <v>4836</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4900</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9820653</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9810487</v>
+      </c>
+      <c r="D24" s="6">
+        <v>9633192</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9590972</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1993514</v>
+      </c>
+      <c r="G24" s="6">
+        <v>838781</v>
+      </c>
+      <c r="H24" s="6">
+        <v>568575</v>
+      </c>
+      <c r="I24" s="6">
+        <v>488970</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B25" s="6">
+        <v>9925220</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7064321</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4716411</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6698997</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5302280</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5182971</v>
+      </c>
+      <c r="H25" s="6">
+        <v>536668</v>
+      </c>
+      <c r="I25" s="6">
+        <v>591522</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13837625</v>
+      </c>
+      <c r="C26" s="6">
+        <v>911</v>
+      </c>
+      <c r="D26" s="6">
+        <v>15446861</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2622</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3828</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5851</v>
+      </c>
+      <c r="H26" s="6">
+        <v>6242</v>
+      </c>
+      <c r="I26" s="6">
+        <v>12069</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>11166068</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10576123</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10481315</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9482203</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9122549</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8101630</v>
+      </c>
+      <c r="H27" s="6">
+        <v>6432508</v>
+      </c>
+      <c r="I27" s="6">
+        <v>4113931</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10900929</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8911931</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7073833</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6665472</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6009087</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7053252</v>
+      </c>
+      <c r="H28" s="6">
+        <v>5300327</v>
+      </c>
+      <c r="I28" s="6">
+        <v>6718185</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10807934</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7820766</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7048050</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7048187</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6963445</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6990183</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2448148</v>
+      </c>
+      <c r="I29" s="6">
+        <v>521093</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10921747</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10871579</v>
+      </c>
+      <c r="D30" s="6">
+        <v>10946795</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6946409</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6528060</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5610840</v>
+      </c>
+      <c r="H30" s="6">
+        <v>5412070</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4476286</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10645278</v>
+      </c>
+      <c r="C31" s="6">
+        <v>7998901</v>
+      </c>
+      <c r="D31" s="6">
+        <v>7068836</v>
+      </c>
+      <c r="E31" s="6">
+        <v>7034237</v>
+      </c>
+      <c r="F31" s="6">
+        <v>7124322</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2583157</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3560678</v>
+      </c>
+      <c r="I31" s="6">
+        <v>522261</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B32" s="6">
+        <v>9768659</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7137218</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4743001</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4669603</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5195464</v>
+      </c>
+      <c r="G32" s="6">
+        <v>598018</v>
+      </c>
+      <c r="H32" s="6">
+        <v>602782</v>
+      </c>
+      <c r="I32" s="6">
+        <v>589159</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B33" s="6">
+        <v>14132767</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7772305</v>
+      </c>
+      <c r="D33" s="6">
+        <v>7839617</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8051534</v>
+      </c>
+      <c r="F33" s="6">
+        <v>690476</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3178090</v>
+      </c>
+      <c r="H33" s="6">
+        <v>89164</v>
+      </c>
+      <c r="I33" s="6">
+        <v>86121</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="B34" s="6">
+        <v>10886606</v>
+      </c>
+      <c r="C34" s="6">
+        <v>8893814</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7299574</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3296391</v>
+      </c>
+      <c r="F34" s="6">
+        <v>526503</v>
+      </c>
+      <c r="G34" s="6">
+        <v>528888</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2005758</v>
+      </c>
+      <c r="I34" s="6">
+        <v>382026</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B35" s="6">
+        <v>6573446</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6674608</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6363900</v>
+      </c>
+      <c r="E35" s="6">
+        <v>350426</v>
+      </c>
+      <c r="F35" s="6">
+        <v>130032</v>
+      </c>
+      <c r="G35" s="6">
+        <v>164227</v>
+      </c>
+      <c r="H35" s="6">
+        <v>187076</v>
+      </c>
+      <c r="I35" s="6">
+        <v>169410</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="B36" s="6">
+        <v>5525693</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5545014</v>
+      </c>
+      <c r="D36" s="6">
+        <v>7159367</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5537071</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3262379</v>
+      </c>
+      <c r="G36" s="6">
+        <v>3024722</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1199137</v>
+      </c>
+      <c r="I36" s="6">
+        <v>594478</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5733843</v>
+      </c>
+      <c r="C37" s="6">
+        <v>5663894</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1344741</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4896612</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4124843</v>
+      </c>
+      <c r="G37" s="6">
+        <v>126511</v>
+      </c>
+      <c r="H37" s="6">
+        <v>168925</v>
+      </c>
+      <c r="I37" s="6">
+        <v>175499</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7230003</v>
+      </c>
+      <c r="C38" s="7">
+        <v>88</v>
+      </c>
+      <c r="D38" s="7">
+        <v>156</v>
+      </c>
+      <c r="E38" s="7">
+        <v>166</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1207</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1552</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1853</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3612</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6041262</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6085560</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6116850</v>
+      </c>
+      <c r="E39" s="6">
+        <v>6277617</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3640814</v>
+      </c>
+      <c r="G39" s="6">
+        <v>742</v>
+      </c>
+      <c r="H39" s="6">
+        <v>821</v>
+      </c>
+      <c r="I39" s="6">
+        <v>941</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5769282</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6117687</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2561482</v>
+      </c>
+      <c r="E40" s="6">
+        <v>548061</v>
+      </c>
+      <c r="F40" s="6">
+        <v>117772</v>
+      </c>
+      <c r="G40" s="6">
+        <v>33146</v>
+      </c>
+      <c r="H40" s="6">
+        <v>26915</v>
+      </c>
+      <c r="I40" s="6">
+        <v>25593</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5803989</v>
+      </c>
+      <c r="C41" s="6">
+        <v>5547221</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5711971</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2424589</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2453659</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1342904</v>
+      </c>
+      <c r="H41" s="6">
+        <v>855567</v>
+      </c>
+      <c r="I41" s="6">
+        <v>40917</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5910556</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9057948</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5853988</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5386819</v>
+      </c>
+      <c r="F42" s="6">
+        <v>6011715</v>
+      </c>
+      <c r="G42" s="6">
+        <v>3793085</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2632658</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1850085</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B43" s="6">
+        <v>5889492</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5846271</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6083834</v>
+      </c>
+      <c r="E43" s="6">
+        <v>8424789</v>
+      </c>
+      <c r="F43" s="6">
+        <v>6288327</v>
+      </c>
+      <c r="G43" s="6">
+        <v>552034</v>
+      </c>
+      <c r="H43" s="6">
+        <v>36653</v>
+      </c>
+      <c r="I43" s="6">
+        <v>35585</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5613775</v>
+      </c>
+      <c r="C44" s="6">
+        <v>7319535</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8477921</v>
+      </c>
+      <c r="E44" s="6">
+        <v>5178237</v>
+      </c>
+      <c r="F44" s="6">
+        <v>821608</v>
+      </c>
+      <c r="G44" s="6">
+        <v>468165</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1861225</v>
+      </c>
+      <c r="I44" s="6">
+        <v>847179</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="B45" s="6">
+        <v>7181724</v>
+      </c>
+      <c r="C45" s="6">
+        <v>7435663</v>
+      </c>
+      <c r="D45" s="6">
+        <v>9249189</v>
+      </c>
+      <c r="E45" s="6">
+        <v>573009</v>
+      </c>
+      <c r="F45" s="6">
+        <v>56964</v>
+      </c>
+      <c r="G45" s="6">
+        <v>17632</v>
+      </c>
+      <c r="H45" s="6">
+        <v>11121</v>
+      </c>
+      <c r="I45" s="6">
+        <v>7703</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="B46" s="6">
+        <v>6183697</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6095797</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8473401</v>
+      </c>
+      <c r="E46" s="6">
+        <v>8908438</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5535965</v>
+      </c>
+      <c r="G46" s="6">
+        <v>607200</v>
+      </c>
+      <c r="H46" s="6">
+        <v>31081</v>
+      </c>
+      <c r="I46" s="6">
+        <v>27158</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -13292,7 +15278,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -13305,7 +15291,7 @@
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -13318,7 +15304,7 @@
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -13331,7 +15317,7 @@
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -13344,7 +15330,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -13357,7 +15343,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -13370,7 +15356,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -13384,7 +15370,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -13397,7 +15383,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -13410,7 +15396,7 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -13423,7 +15409,7 @@
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -13437,7 +15423,7 @@
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -13451,7 +15437,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -13465,7 +15451,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -13479,7 +15465,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -13494,7 +15480,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -13509,7 +15495,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -13522,7 +15508,7 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -13536,7 +15522,7 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -13549,7 +15535,7 @@
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -13563,7 +15549,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -13578,7 +15564,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -13593,7 +15579,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -13608,7 +15594,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -13623,7 +15609,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -13636,7 +15622,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -13649,7 +15635,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -13662,7 +15648,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -13676,7 +15662,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -13690,7 +15676,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -13704,7 +15690,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -13718,7 +15704,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -13733,7 +15719,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -13748,7 +15734,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -13762,7 +15748,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -13775,7 +15761,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -13792,9 +15778,7 @@
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -13804,36 +15788,8 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
-      </c>
-      <c r="F88">
-        <v>16</v>
-      </c>
-      <c r="G88">
-        <v>32</v>
-      </c>
-      <c r="H88">
-        <v>64</v>
-      </c>
-      <c r="I88">
-        <v>128</v>
-      </c>
-    </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A89" s="3"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -13844,9 +15800,7 @@
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A90" s="3"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -13857,9 +15811,7 @@
       <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A91" s="3"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -13886,9 +15838,7 @@
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -13899,36 +15849,8 @@
       <c r="I95" s="9"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-      <c r="E96">
-        <v>8</v>
-      </c>
-      <c r="F96">
-        <v>16</v>
-      </c>
-      <c r="G96">
-        <v>32</v>
-      </c>
-      <c r="H96">
-        <v>64</v>
-      </c>
-      <c r="I96">
-        <v>128</v>
-      </c>
-    </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A97" s="3"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -13940,9 +15862,7 @@
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A98" s="3"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -13955,9 +15875,7 @@
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A99" s="3"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -13984,9 +15902,7 @@
       <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -13997,36 +15913,10 @@
       <c r="I103" s="9"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104">
-        <v>8</v>
-      </c>
-      <c r="F104">
-        <v>16</v>
-      </c>
-      <c r="G104">
-        <v>32</v>
-      </c>
-      <c r="H104">
-        <v>64</v>
-      </c>
-      <c r="I104">
-        <v>128</v>
-      </c>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A105" s="3"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -14038,9 +15928,7 @@
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -14053,9 +15941,7 @@
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A107" s="3"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
